--- a/103_BaseDeDonnees/Exercices/205_Aeroport/AEROPORT Matrice.xlsx
+++ b/103_BaseDeDonnees/Exercices/205_Aeroport/AEROPORT Matrice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba75d8fe6eadcc5e/Documents/GitHub/FORMATION-CDA-2210/103_BaseDeDonnees/Exercices/205_Aeroport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcravo\Documents\GitHub\FORMATION-CDA-2210\103_BaseDeDonnees\Exercices\205_Aeroport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="11_AD4D9D64A577C15A4A54182B785D44C05BDEDD8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EACD0915-B3AC-4FE9-9181-4EDF29F7F422}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004F5A99-3BB7-41D7-AB30-96378B0C95D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>avion_id</t>
   </si>
@@ -42,9 +42,6 @@
     <t>adresse_numero</t>
   </si>
   <si>
-    <t>adresse_intitule_voie</t>
-  </si>
-  <si>
     <t>adresse_complement_remise</t>
   </si>
   <si>
@@ -63,18 +60,6 @@
     <t>proprietaire_id</t>
   </si>
   <si>
-    <t>proprietaire_raison_sociale</t>
-  </si>
-  <si>
-    <t>proprietaire_nom</t>
-  </si>
-  <si>
-    <t>proprietaire_prenom</t>
-  </si>
-  <si>
-    <t>historique_id</t>
-  </si>
-  <si>
     <t>constructeur_id</t>
   </si>
   <si>
@@ -111,37 +96,37 @@
     <t>mecanicien_id</t>
   </si>
   <si>
-    <t>mecanicien_nom</t>
-  </si>
-  <si>
-    <t>mecanicien_prenom</t>
-  </si>
-  <si>
-    <t>mecanicien_telephone</t>
-  </si>
-  <si>
     <t>pilote_brevet</t>
   </si>
   <si>
-    <t>pilote_nom</t>
-  </si>
-  <si>
-    <t>pilote_prenom</t>
-  </si>
-  <si>
-    <t>pilote_telephone</t>
-  </si>
-  <si>
     <t>vol_id</t>
   </si>
   <si>
-    <t>date_achat</t>
-  </si>
-  <si>
     <t>vol_date_heure_depart</t>
   </si>
   <si>
     <t>vol_date_heure_arrivee</t>
+  </si>
+  <si>
+    <t>nominatif_id</t>
+  </si>
+  <si>
+    <t>nominatif_raison_sociale</t>
+  </si>
+  <si>
+    <t>nominatif_nom</t>
+  </si>
+  <si>
+    <t>nominatif_prenom</t>
+  </si>
+  <si>
+    <t>telephone_id</t>
+  </si>
+  <si>
+    <t>telephone_numero</t>
+  </si>
+  <si>
+    <t>adresse_libelle_voie</t>
   </si>
 </sst>
 </file>
@@ -157,7 +142,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,12 +164,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,15 +191,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,29 +479,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -531,34 +510,37 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="I1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,15 +550,16 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4">
-        <v>1</v>
-      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -593,8 +576,9 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -611,8 +595,9 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -626,13 +611,14 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5">
-        <v>1</v>
-      </c>
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -649,10 +635,11 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5">
@@ -667,10 +654,11 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5">
@@ -685,10 +673,11 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5">
@@ -703,10 +692,11 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5">
@@ -721,10 +711,11 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5">
@@ -739,10 +730,11 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5">
@@ -757,10 +749,11 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
@@ -775,52 +768,55 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
+      <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -829,116 +825,123 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="4">
-        <v>1</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="5">
-        <v>1</v>
-      </c>
+      <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5">
-        <v>1</v>
-      </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="4">
-        <v>1</v>
-      </c>
+      <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -953,10 +956,11 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -971,10 +975,11 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -987,28 +992,30 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4">
+        <v>1</v>
+      </c>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5">
-        <v>1</v>
-      </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1017,16 +1024,15 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="5">
-        <v>1</v>
-      </c>
+      <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1035,50 +1041,59 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="5">
-        <v>1</v>
-      </c>
+      <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
+      <c r="K28" s="5">
+        <v>1</v>
+      </c>
       <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5">
+        <v>1</v>
+      </c>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
+      <c r="I30" s="4">
+        <v>1</v>
+      </c>
       <c r="J30" s="4">
         <v>1</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1088,15 +1103,16 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="4">
-        <v>1</v>
-      </c>
+      <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L31" s="4">
+        <v>1</v>
+      </c>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1106,49 +1122,58 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="4">
-        <v>1</v>
-      </c>
+      <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="L32" s="4">
+        <v>1</v>
+      </c>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4">
+        <v>1</v>
+      </c>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5">
-        <v>1</v>
-      </c>
+      <c r="I34" s="5">
+        <v>1</v>
+      </c>
+      <c r="J34" s="5">
+        <v>1</v>
+      </c>
+      <c r="K34" s="5"/>
       <c r="L34" s="5"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34" s="5"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1159,78 +1184,9 @@
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
-      <c r="K35" s="5">
-        <v>1</v>
-      </c>
+      <c r="K35" s="5"/>
       <c r="L35" s="5"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5">
-        <v>1</v>
-      </c>
-      <c r="L36" s="5"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4">
+      <c r="M35" s="5">
         <v>1</v>
       </c>
     </row>

--- a/103_BaseDeDonnees/Exercices/205_Aeroport/AEROPORT Matrice.xlsx
+++ b/103_BaseDeDonnees/Exercices/205_Aeroport/AEROPORT Matrice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcravo\Documents\GitHub\FORMATION-CDA-2210\103_BaseDeDonnees\Exercices\205_Aeroport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004F5A99-3BB7-41D7-AB30-96378B0C95D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CA6E8A-4E68-453D-977C-A7F1F0C27240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -482,7 +482,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="C6" sqref="C6:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
